--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>163822</t>
-  </si>
-  <si>
-    <t>中银主题策略混合</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>91.97</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>0.1133</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>870008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.47</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.47</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1133</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>870009</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合A</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>43.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5796</t>
+          <t>1.1243</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>870008</t>
+          <t>870009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发资管乾利一年持有期债券A</t>
+          <t>广发资管平衡精选一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.66</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3938</t>
+          <t>1.1074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -675,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>872014</t>
+          <t>013533</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发资管乾利一年持有期债券C</t>
+          <t>广发科技创新混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2580</t>
+          <t>0.2031</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -713,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010965</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银鑫新消费成长混合A</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.97</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1369</t>
+          <t>0.1652</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -751,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>872019</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合C</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.1583</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -789,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010962</t>
+          <t>872019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银鑫新消费成长混合C</t>
+          <t>广发资管平衡精选一年持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.97</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.1480</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -827,36 +833,226 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001866</t>
+          <t>519959</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
+          <t>长信多利灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.1294</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,36 +1439,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>870009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>广发资管平衡精选一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.41</t>
+          <t>19.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1243</t>
+          <t>0.5796</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1281,36 +1477,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>870009</t>
+          <t>870008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合A</t>
+          <t>广发资管乾利一年持有期债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>17.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1074</t>
+          <t>0.3938</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1319,36 +1515,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013533</t>
+          <t>872014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发科技创新混合C</t>
+          <t>广发资管乾利一年持有期债券C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2031</t>
+          <t>0.2580</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1357,32 +1553,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>010965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>中银鑫新消费成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>70.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1652</t>
+          <t>0.1369</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1395,32 +1591,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>872019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>广发资管平衡精选一年持有混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1583</t>
+          <t>0.0790</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1433,36 +1629,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>872019</t>
+          <t>010962</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合C</t>
+          <t>中银鑫新消费成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>70.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1480</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1471,226 +1667,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519959</t>
+          <t>001866</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信多利灵活配置混合</t>
+          <t>北信瑞丰新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1294</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013488</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1294</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014380</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1168</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0805</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010780</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1704,96 +1710,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.47</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -549,6 +566,1540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,328 +2604,6 @@
       </c>
       <c r="H13" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>870009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4729</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>872019</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0642</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011431</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519959</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013488</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011432</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1449,22 +2678,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5796</t>
+          <t>0.4729</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1477,36 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>870008</t>
+          <t>872019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发资管乾利一年持有期债券A</t>
+          <t>广发资管平衡精选一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.66</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3938</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1515,36 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>872014</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发资管乾利一年持有期债券C</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>81.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2580</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1553,36 +2782,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010965</t>
+          <t>519959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银鑫新消费成长混合A</t>
+          <t>长信多利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.97</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1369</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1591,36 +2820,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>872019</t>
+          <t>013488</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合C</t>
+          <t>长信多利灵活配置混合D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1629,36 +2858,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010962</t>
+          <t>519987</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银鑫新消费成长混合C</t>
+          <t>长信恒利优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.97</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1667,36 +2896,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001866</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>81.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1705,6 +2934,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>870008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
+++ b/数据整理/stocks/A股/上证主板/603908-牧高笛.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.78</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>3.41</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.47</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -566,6 +583,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2604,328 +3019,6 @@
       </c>
       <c r="H13" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>870009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4729</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>872019</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0642</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011431</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519959</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013488</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011432</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3000,22 +3093,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5796</t>
+          <t>0.4729</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3028,36 +3121,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>870008</t>
+          <t>872019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发资管乾利一年持有期债券A</t>
+          <t>广发资管平衡精选一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.66</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3938</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3066,36 +3159,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>872014</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发资管乾利一年持有期债券C</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>81.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2580</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3104,36 +3197,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010965</t>
+          <t>519959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银鑫新消费成长混合A</t>
+          <t>长信多利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.97</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1369</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3142,36 +3235,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>872019</t>
+          <t>013488</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合C</t>
+          <t>长信多利灵活配置混合D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3180,36 +3273,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010962</t>
+          <t>519987</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银鑫新消费成长混合C</t>
+          <t>长信恒利优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.97</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3218,36 +3311,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001866</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>81.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3256,6 +3349,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>870008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
